--- a/Documentos e controles/Gerenciamento - Projeto SCRUM DATA.xlsx
+++ b/Documentos e controles/Gerenciamento - Projeto SCRUM DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\000-API\API\Documentos e controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF507714-A9EE-45A0-840E-1A5D20E427DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C3C9F-FA64-4D88-88CA-6D93ADCD3BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{322BFBEE-0BC9-49AC-A6A1-46645DB6A4D9}"/>
   </bookViews>
@@ -23,11 +23,22 @@
     <sheet name="PLAN_REAL" sheetId="9" r:id="rId8"/>
     <sheet name="BDADOS" sheetId="10" state="hidden" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BACKLOG!$B$4:$I$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EQUIPE!$B$4:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'RELAT.DESEMPENHO'!$B$6:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SPRINT!$B$4:$H$4</definedName>
+    <definedName name="CalendárioAno1">CADASTRO!$B$1</definedName>
+    <definedName name="CaléndárioMês1">[1]Calendário!$C$1</definedName>
+    <definedName name="CaléndárioMês1Opção">MATCH(CaléndárioMês1,Meses,0)</definedName>
+    <definedName name="DiaDaSemanaOpção">MATCH(InícioDaSemana,DiasDaSemana,0)+10</definedName>
+    <definedName name="Dias">{0,1,2,3,4,5,6}</definedName>
+    <definedName name="DiasDaSemana">{"SEGUNDA-FEIRA","TERÇA-FEIRA","QUARTA-FEIRA","QUINTA-FEIRA","SEXTA-FEIRA","SÁBADO","DOMINGO"}</definedName>
+    <definedName name="InícioDaSemana">CADASTRO!$B$2</definedName>
+    <definedName name="Meses">{"Janeiro","Fevereiro","Março","Abril","Maio","Junho","Julho","Agosto","Setembro","Outubro","Novembro","Dezembro"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
   <si>
     <t>NOME</t>
   </si>
@@ -121,9 +132,6 @@
   </si>
   <si>
     <t>claudia.ferreira3@fatec.sp.gov.br</t>
-  </si>
-  <si>
-    <t>https://github.com/ClaudiaDarlei</t>
   </si>
   <si>
     <t>Tem Dev</t>
@@ -359,12 +367,60 @@
   <si>
     <t>Criar protótipos de Desgn - ETAPA 4</t>
   </si>
+  <si>
+    <t>@Claudia-Nunes</t>
+  </si>
+  <si>
+    <t>@DanielleSismon</t>
+  </si>
+  <si>
+    <t>@fnddavi</t>
+  </si>
+  <si>
+    <t>@jessicaclifton</t>
+  </si>
+  <si>
+    <t>@larissaxyz</t>
+  </si>
+  <si>
+    <t>@Lemos05</t>
+  </si>
+  <si>
+    <t>@matheussanto2</t>
+  </si>
+  <si>
+    <t>@Sathanthiago</t>
+  </si>
+  <si>
+    <t>@Chesere</t>
+  </si>
+  <si>
+    <t>segunda-feira</t>
+  </si>
+  <si>
+    <t>terça-feira</t>
+  </si>
+  <si>
+    <t>quarta-feira</t>
+  </si>
+  <si>
+    <t>quinta-feira</t>
+  </si>
+  <si>
+    <t>sexta-feira</t>
+  </si>
+  <si>
+    <t>SPRINT 1 - 13/03/23 á 09/04/23</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +494,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,8 +571,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -575,12 +670,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" applyFill="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" applyFill="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -639,6 +796,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,70 +818,14 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Detalhes do dia" xfId="4" xr:uid="{5C7E4F6F-A9A7-4544-9240-B656D102BCA5}"/>
+    <cellStyle name="Dia" xfId="3" xr:uid="{CA4F5155-A6FB-4FB5-8F00-6E16DC364AE3}"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -900,6 +1016,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1044,6 +1195,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1117,6 +1292,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF339933"/>
+      <color rgb="FF006699"/>
       <color rgb="FF008080"/>
     </mruColors>
   </colors>
@@ -2433,8 +2610,8 @@
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>417833</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1027433</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>445724</xdr:rowOff>
     </xdr:to>
@@ -2510,8 +2687,8 @@
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525013</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321813</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>445723</xdr:rowOff>
     </xdr:to>
@@ -2670,8 +2847,8 @@
       <xdr:rowOff>147063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>170183</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>779783</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2238</xdr:rowOff>
     </xdr:to>
@@ -2747,8 +2924,8 @@
       <xdr:rowOff>147062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>277363</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>963163</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2237</xdr:rowOff>
     </xdr:to>
@@ -2986,8 +3163,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>117750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295550</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>493350</xdr:rowOff>
     </xdr:to>
@@ -3294,285 +3471,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3176</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="Agrupar 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD73775-B0AE-4F3A-8DB4-360D6D2FCC32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="527050"/>
-          <a:ext cx="15497176" cy="0"/>
-          <a:chOff x="1476375" y="1704973"/>
-          <a:chExt cx="4856580" cy="581027"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Retângulo 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D64D0E-F49F-B2BE-1CB8-13A9C773F627}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1476375" y="1704973"/>
-            <a:ext cx="1304925" cy="581025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>CADASTRO</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Retângulo 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5874DA34-3291-9E98-77E1-426561BB3D93}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2660260" y="1704975"/>
-            <a:ext cx="1304925" cy="581025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>SCRUM</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Retângulo 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E84D8FA-9F25-FA47-7307-356FC754900E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3844145" y="1704975"/>
-            <a:ext cx="1304925" cy="581025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>RELATÓRIO</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Retângulo 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5875D0-8030-EE15-3B91-3E049F0D5CBD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5028030" y="1704973"/>
-            <a:ext cx="1304925" cy="581025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>DASHBOARD</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -8650,6 +8548,25 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Calendário"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>agosto</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -8947,55 +8864,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4674FC0-ACD5-4214-8231-8CE319C0A492}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="19.85546875" style="3" customWidth="1"/>
+    <col min="10" max="14" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="26">
+        <v>44998</v>
+      </c>
+      <c r="F10" s="26">
+        <v>44999</v>
+      </c>
+      <c r="G10" s="26">
+        <v>45000</v>
+      </c>
+      <c r="H10" s="26">
+        <v>45001</v>
+      </c>
+      <c r="I10" s="25">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="26">
+        <v>45005</v>
+      </c>
+      <c r="F11" s="26">
+        <v>45006</v>
+      </c>
+      <c r="G11" s="26">
+        <v>45007</v>
+      </c>
+      <c r="H11" s="26">
+        <v>45008</v>
+      </c>
+      <c r="I11" s="25">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="26">
+        <v>45012</v>
+      </c>
+      <c r="F12" s="26">
+        <v>45013</v>
+      </c>
+      <c r="G12" s="26">
+        <v>45014</v>
+      </c>
+      <c r="H12" s="26">
+        <v>45015</v>
+      </c>
+      <c r="I12" s="25">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E13" s="26">
+        <v>45019</v>
+      </c>
+      <c r="F13" s="26">
+        <v>45020</v>
+      </c>
+      <c r="G13" s="26">
+        <v>45021</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:I8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9004,6 +9014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCFE4DD-5A78-4E5A-9649-9EDFEB9AB891}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
@@ -9036,14 +9047,16 @@
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9051,11 +9064,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9063,11 +9078,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9075,11 +9092,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9087,11 +9106,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9099,11 +9120,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9111,11 +9134,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9125,11 +9150,11 @@
       <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9137,11 +9162,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9164,7 +9191,8 @@
     <hyperlink ref="C12" r:id="rId1" xr:uid="{7AE15ED6-91B0-41CC-8DDA-5FABF2E67326}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9197,7 +9225,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9216,39 +9244,39 @@
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6">
         <v>50</v>
@@ -9257,22 +9285,22 @@
         <v>3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6">
         <v>50</v>
@@ -9281,22 +9309,22 @@
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="6">
         <v>50</v>
@@ -9305,22 +9333,22 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6">
         <v>50</v>
@@ -9329,22 +9357,22 @@
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="6">
         <v>50</v>
@@ -9353,22 +9381,22 @@
         <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="6">
         <v>50</v>
@@ -9377,22 +9405,22 @@
         <v>3</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6">
         <v>30</v>
@@ -9401,22 +9429,22 @@
         <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="6">
         <v>30</v>
@@ -9425,22 +9453,22 @@
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6">
         <v>50</v>
@@ -9449,22 +9477,22 @@
         <v>3</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6">
         <v>40</v>
@@ -9473,22 +9501,22 @@
         <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6">
         <v>40</v>
@@ -9497,22 +9525,22 @@
         <v>3</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="6">
         <v>50</v>
@@ -9521,22 +9549,22 @@
         <v>3</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="6">
         <v>30</v>
@@ -9545,22 +9573,22 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="6">
         <v>40</v>
@@ -9569,22 +9597,22 @@
         <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="6">
         <v>30</v>
@@ -9593,22 +9621,22 @@
         <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6">
         <v>30</v>
@@ -9617,22 +9645,22 @@
         <v>3</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="6">
         <v>30</v>
@@ -9641,22 +9669,22 @@
         <v>3</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6">
         <v>40</v>
@@ -9665,22 +9693,22 @@
         <v>3</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="6">
         <v>50</v>
@@ -9689,22 +9717,22 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="6">
         <v>50</v>
@@ -9713,22 +9741,22 @@
         <v>3</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="6">
         <v>50</v>
@@ -9737,22 +9765,22 @@
         <v>3</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6">
         <v>40</v>
@@ -9761,22 +9789,22 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6">
         <v>40</v>
@@ -9785,22 +9813,22 @@
         <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="6">
         <v>40</v>
@@ -9809,22 +9837,22 @@
         <v>3</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="6">
         <v>40</v>
@@ -9833,22 +9861,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="6">
         <v>40</v>
@@ -9857,10 +9885,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="6"/>
     </row>
@@ -19279,7 +19307,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19297,25 +19325,25 @@
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19343,7 +19371,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19360,7 +19388,7 @@
         <v>SPRINT 1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="13">
         <f>VLOOKUP($B6,BACKLOG!$B$5:$G$5000,4,)</f>
@@ -19371,7 +19399,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19399,7 +19427,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19427,7 +19455,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19454,7 +19482,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19481,7 +19509,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19509,7 +19537,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19537,7 +19565,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19565,7 +19593,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19593,7 +19621,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19610,7 +19638,7 @@
         <v>SPRINT 1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13">
         <f>VLOOKUP($B15,BACKLOG!$B$5:$G$5000,4,)</f>
@@ -19621,7 +19649,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19721,7 +19749,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19738,7 +19766,7 @@
         <v>SPRINT 1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="13">
         <f>VLOOKUP($B20,BACKLOG!$B$5:$G$5000,4,)</f>
@@ -19749,7 +19777,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19777,7 +19805,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34914,80 +34942,80 @@
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H1000">
     <sortCondition ref="D5:D1000"/>
-    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="2"/>
-    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="1"/>
-    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="39"/>
+    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="38"/>
+    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="37"/>
   </sortState>
   <conditionalFormatting sqref="C2:D4 D443:D1048576">
-    <cfRule type="containsErrors" dxfId="39" priority="20">
+    <cfRule type="containsErrors" dxfId="36" priority="20">
       <formula>ISERROR(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F442">
-    <cfRule type="containsErrors" dxfId="38" priority="21">
+    <cfRule type="containsErrors" dxfId="35" priority="21">
       <formula>ISERROR(F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G442">
-    <cfRule type="containsErrors" dxfId="37" priority="22">
+    <cfRule type="containsErrors" dxfId="34" priority="22">
       <formula>ISERROR(G5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="containsText" dxfId="36" priority="14" operator="containsText" text="CANCELADO">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="CANCELADO">
       <formula>NOT(ISERROR(SEARCH("CANCELADO",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="CONCLUIDO">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="CONCLUIDO">
       <formula>NOT(ISERROR(SEARCH("CONCLUIDO",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="EM ANDAMENTO">
+    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="EM ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("EM ANDAMENTO",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C1048576">
-    <cfRule type="containsErrors" dxfId="33" priority="13">
+    <cfRule type="containsErrors" dxfId="30" priority="13">
       <formula>ISERROR(C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C5000">
-    <cfRule type="containsErrors" dxfId="32" priority="9">
+    <cfRule type="containsErrors" dxfId="29" priority="9">
       <formula>ISERROR(C5)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="MÉDIA">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="MÉDIA">
       <formula>NOT(ISERROR(SEARCH("MÉDIA",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="BAIXA">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="BAIXA">
       <formula>NOT(ISERROR(SEARCH("BAIXA",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsErrors" dxfId="28" priority="5">
+    <cfRule type="containsErrors" dxfId="25" priority="5">
       <formula>ISERROR(G1)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="CANCELADO">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="CANCELADO">
       <formula>NOT(ISERROR(SEARCH("CANCELADO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="CONCLUIDO">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="CONCLUIDO">
       <formula>NOT(ISERROR(SEARCH("CONCLUIDO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="EM ANDAMENTO">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="EM ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("EM ANDAMENTO",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D442">
-    <cfRule type="containsErrors" dxfId="6" priority="1">
+    <cfRule type="containsErrors" dxfId="21" priority="1">
       <formula>ISERROR(D5)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="MÉDIA">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="MÉDIA">
       <formula>NOT(ISERROR(SEARCH("MÉDIA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="BAIXA">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="BAIXA">
       <formula>NOT(ISERROR(SEARCH("BAIXA",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35019,9 +35047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D336C97-532C-4A11-85FE-1253277DDC82}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35039,7 +35065,7 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -35049,22 +35075,22 @@
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="19"/>
     </row>
@@ -35488,45 +35514,45 @@
   <autoFilter ref="B6:G6" xr:uid="{0D336C97-532C-4A11-85FE-1253277DDC82}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B7:G22">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G22">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D3">
-    <cfRule type="containsErrors" dxfId="21" priority="9">
+    <cfRule type="containsErrors" dxfId="14" priority="9">
       <formula>ISERROR(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="CANCELADO">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="CANCELADO">
       <formula>NOT(ISERROR(SEARCH("CANCELADO",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="CONCLUIDO">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="CONCLUIDO">
       <formula>NOT(ISERROR(SEARCH("CONCLUIDO",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="EM ANDAMENTO">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="EM ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("EM ANDAMENTO",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsErrors" dxfId="17" priority="1">
+    <cfRule type="containsErrors" dxfId="10" priority="1">
       <formula>ISERROR(G1)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="CANCELADO">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="CANCELADO">
       <formula>NOT(ISERROR(SEARCH("CANCELADO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="CONCLUIDO">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="CONCLUIDO">
       <formula>NOT(ISERROR(SEARCH("CONCLUIDO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="EM ANDAMENTO">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="EM ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("EM ANDAMENTO",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35571,7 +35597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E445E58-335A-49F4-A8AF-477DC33FD806}">
   <dimension ref="C1:AO37"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35582,18 +35610,18 @@
     <row r="2" spans="3:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:41" x14ac:dyDescent="0.25">
       <c r="AM7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO7" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C8" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM8" s="3" cm="1">
         <f t="array" ref="AM8:AM37">BDADOS!B3:B32</f>
@@ -35622,12 +35650,12 @@
       </c>
     </row>
     <row r="10" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="24">
+      <c r="C10" s="29">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="AM10" s="3">
         <v>3</v>
       </c>
@@ -35641,9 +35669,9 @@
       </c>
     </row>
     <row r="11" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="AM11" s="3">
         <v>4</v>
       </c>
@@ -35657,9 +35685,9 @@
       </c>
     </row>
     <row r="12" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="AM12" s="3">
         <v>0</v>
       </c>
@@ -35673,9 +35701,9 @@
       </c>
     </row>
     <row r="13" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="AM13" s="3">
         <v>0</v>
       </c>
@@ -35716,7 +35744,7 @@
     </row>
     <row r="16" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM16" s="3">
         <v>0</v>
@@ -35744,12 +35772,12 @@
       </c>
     </row>
     <row r="18" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="24">
+      <c r="C18" s="29">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="AM18" s="3">
         <v>0</v>
       </c>
@@ -35763,9 +35791,9 @@
       </c>
     </row>
     <row r="19" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="AM19" s="3">
         <v>0</v>
       </c>
@@ -35779,9 +35807,9 @@
       </c>
     </row>
     <row r="20" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="AM20" s="3">
         <v>0</v>
       </c>
@@ -35795,9 +35823,9 @@
       </c>
     </row>
     <row r="21" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="AM21" s="3">
         <v>0</v>
       </c>
@@ -35838,7 +35866,7 @@
     </row>
     <row r="24" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM24" s="3">
         <v>0</v>
@@ -35866,12 +35894,12 @@
       </c>
     </row>
     <row r="26" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="24">
+      <c r="C26" s="29">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="AM26" s="3">
         <v>0</v>
       </c>
@@ -35885,9 +35913,9 @@
       </c>
     </row>
     <row r="27" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="AM27" s="3">
         <v>0</v>
       </c>
@@ -35901,9 +35929,9 @@
       </c>
     </row>
     <row r="28" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
       <c r="AM28" s="3">
         <v>0</v>
       </c>
@@ -35917,9 +35945,9 @@
       </c>
     </row>
     <row r="29" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="AM29" s="3">
         <v>0</v>
       </c>
@@ -36062,16 +36090,16 @@
     <row r="2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsErrors" dxfId="12" priority="1">
+    <cfRule type="containsErrors" dxfId="5" priority="1">
       <formula>ISERROR(G1)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="CANCELADO">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="CANCELADO">
       <formula>NOT(ISERROR(SEARCH("CANCELADO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="CONCLUIDO">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="CONCLUIDO">
       <formula>NOT(ISERROR(SEARCH("CONCLUIDO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="EM ANDAMENTO">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="EM ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("EM ANDAMENTO",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36098,29 +36126,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -36137,16 +36165,16 @@
         <v>DANIELLE</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -36162,16 +36190,16 @@
         <v>MATEUS</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -36187,16 +36215,16 @@
         <v>FRANCIELE</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -36212,10 +36240,10 @@
         <v>NATHAN</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -36991,12 +37019,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="FALSO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSO">
       <formula>NOT(ISERROR(SEARCH("FALSO",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos e controles/Gerenciamento - Projeto SCRUM DATA.xlsx
+++ b/Documentos e controles/Gerenciamento - Projeto SCRUM DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\000-API\API\Documentos e controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C3C9F-FA64-4D88-88CA-6D93ADCD3BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC722C74-167B-48D6-A28E-6D233EE32644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{322BFBEE-0BC9-49AC-A6A1-46645DB6A4D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{322BFBEE-0BC9-49AC-A6A1-46645DB6A4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CADASTRO" sheetId="2" r:id="rId1"/>
@@ -18,18 +18,20 @@
     <sheet name="ORGANOGRAMA" sheetId="11" r:id="rId3"/>
     <sheet name="BACKLOG" sheetId="4" r:id="rId4"/>
     <sheet name="SPRINT" sheetId="5" r:id="rId5"/>
-    <sheet name="RELAT.DESEMPENHO" sheetId="7" r:id="rId6"/>
-    <sheet name="DASHBOARD" sheetId="8" r:id="rId7"/>
-    <sheet name="PLAN_REAL" sheetId="9" r:id="rId8"/>
-    <sheet name="BDADOS" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Planilha1" sheetId="12" r:id="rId6"/>
+    <sheet name="RELAT.DESEMPENHO" sheetId="7" r:id="rId7"/>
+    <sheet name="DASHBOARD" sheetId="8" r:id="rId8"/>
+    <sheet name="PLAN_REAL" sheetId="9" r:id="rId9"/>
+    <sheet name="Planilha2" sheetId="13" r:id="rId10"/>
+    <sheet name="BDADOS" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BACKLOG!$B$4:$I$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EQUIPE!$B$4:$E$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'RELAT.DESEMPENHO'!$B$6:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'RELAT.DESEMPENHO'!$B$6:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SPRINT!$B$4:$H$4</definedName>
     <definedName name="CalendárioAno1">CADASTRO!$B$1</definedName>
     <definedName name="CaléndárioMês1">[1]Calendário!$C$1</definedName>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="124">
   <si>
     <t>NOME</t>
   </si>
@@ -412,6 +414,48 @@
   <si>
     <t>SPRINT 1 - 13/03/23 á 09/04/23</t>
   </si>
+  <si>
+    <t>NOME    |   EMAIL   |   GITHUB  |   CARGO</t>
+  </si>
+  <si>
+    <t>--- |   --- |   --- |   ---</t>
+  </si>
+  <si>
+    <t>DANIELLE    |   danielle.sismon@fatec.sp.gov.br |       |   PO</t>
+  </si>
+  <si>
+    <t>MATEUS  |   matheus.santo2@fatec.sp.gov.br  |       |   Master Scrum</t>
+  </si>
+  <si>
+    <t>FRANCIELE   |   franciele.chesere@fatec.sp.gov.br   |       |   Tem Dev</t>
+  </si>
+  <si>
+    <t>NATHAN  |   thiago.marcilio@fatec.sp.gov.br |       |   Tem Dev</t>
+  </si>
+  <si>
+    <t>JESSICA |   jessica.riley@fatec.sp.gov.br   |       |   Tem Dev</t>
+  </si>
+  <si>
+    <t>FERNANDO    |   fernando.ferreira32@fatec.sp.gov.br |       |   Tem Dev</t>
+  </si>
+  <si>
+    <t>LARISSA |   larissa.candido@fatec.sp.gov.br |       |   Tem Dev</t>
+  </si>
+  <si>
+    <t>CLAUDIA |   claudia.ferreira3@fatec.sp.gov.br   |   https://github.com/ClaudiaDarlei    |   Tem Dev</t>
+  </si>
+  <si>
+    <t>NICOLAS |   nicolas.lemos@fatec.sp.gov.br   |       |   Tem Dev</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>![ScrumerDataAPI GitHub stats](https://github-readme-stats.vercel.app/api?username=ScrumerDataAPI&amp;show_icons=true&amp;theme=dracula)</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +781,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -816,6 +860,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1195,30 +1245,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1285,6 +1311,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8866,7 +8916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4674FC0-ACD5-4214-8231-8CE319C0A492}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -9012,12 +9062,1218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506CCD2B-FB7A-460A-A203-3451E579D68D}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB646DE6-61D8-4310-B19E-3CBC0FC4ABCF}">
+  <dimension ref="A1:J118"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF($A3&lt;=CADASTRO!$C$13,$A3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>EQUIPE!B5</f>
+        <v>DANIELLE</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>IF($A4&lt;=CADASTRO!$C$13,$A4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f>EQUIPE!B6</f>
+        <v>MATEUS</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>IF($A5&lt;=CADASTRO!$C$13,$A5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f>EQUIPE!B7</f>
+        <v>FRANCIELE</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>IF($A6&lt;=CADASTRO!$C$13,$A6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <f>EQUIPE!B8</f>
+        <v>NATHAN</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>IF($A7&lt;=CADASTRO!$C$13,$A7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f>EQUIPE!B9</f>
+        <v>JESSICA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>IF($A8&lt;=CADASTRO!$C$13,$A8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f>EQUIPE!B10</f>
+        <v>FERNANDO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>IF($A9&lt;=CADASTRO!$C$13,$A9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f>EQUIPE!B11</f>
+        <v>LARISSA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>IF($A10&lt;=CADASTRO!$C$13,$A10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f>EQUIPE!B12</f>
+        <v>CLAUDIA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>IF($A11&lt;=CADASTRO!$C$13,$A11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f>EQUIPE!B13</f>
+        <v>NICOLAS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>IF($A12&lt;=CADASTRO!$C$13,$A12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>EQUIPE!B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>IF($A13&lt;=CADASTRO!$C$13,$A13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>EQUIPE!B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>IF($A14&lt;=CADASTRO!$C$13,$A14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>EQUIPE!B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>IF($A15&lt;=CADASTRO!$C$13,$A15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>EQUIPE!B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>IF($A16&lt;=CADASTRO!$C$13,$A16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>EQUIPE!B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>IF($A17&lt;=CADASTRO!$C$13,$A17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>EQUIPE!B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>IF($A18&lt;=CADASTRO!$C$13,$A18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>EQUIPE!B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>IF($A19&lt;=CADASTRO!$C$13,$A19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>EQUIPE!B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>IF($A20&lt;=CADASTRO!$C$13,$A20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>EQUIPE!B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>IF($A21&lt;=CADASTRO!$C$13,$A21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>EQUIPE!B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>IF($A22&lt;=CADASTRO!$C$13,$A22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>EQUIPE!B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>IF($A23&lt;=CADASTRO!$C$13,$A23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>EQUIPE!B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>IF($A24&lt;=CADASTRO!$C$13,$A24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>EQUIPE!B26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>IF($A25&lt;=CADASTRO!$C$13,$A25,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>EQUIPE!B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>IF($A26&lt;=CADASTRO!$C$13,$A26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>EQUIPE!B28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>IF($A27&lt;=CADASTRO!$C$13,$A27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>EQUIPE!B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>IF($A28&lt;=CADASTRO!$C$13,$A28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>EQUIPE!B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>IF($A29&lt;=CADASTRO!$C$13,$A29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>EQUIPE!B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>IF($A30&lt;=CADASTRO!$C$13,$A30,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>EQUIPE!B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>IF($A31&lt;=CADASTRO!$C$13,$A31,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>IF($A32&lt;=CADASTRO!$C$13,$A32,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>IF($A33&lt;=CADASTRO!$C$13,$A33,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>IF($A34&lt;=CADASTRO!$C$13,$A34,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>IF($A35&lt;=CADASTRO!$C$13,$A35,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>IF($A36&lt;=CADASTRO!$C$13,$A36,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>IF($A37&lt;=CADASTRO!$C$13,$A37,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>IF($A38&lt;=CADASTRO!$C$13,$A38,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>IF($A39&lt;=CADASTRO!$C$13,$A39,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>IF($A40&lt;=CADASTRO!$C$13,$A40,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>IF($A41&lt;=CADASTRO!$C$13,$A41,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>IF($A42&lt;=CADASTRO!$C$13,$A42,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>IF($A43&lt;=CADASTRO!$C$13,$A43,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>IF($A44&lt;=CADASTRO!$C$13,$A44,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>IF($A45&lt;=CADASTRO!$C$13,$A45,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>IF($A46&lt;=CADASTRO!$C$13,$A46,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>IF($A47&lt;=CADASTRO!$C$13,$A47,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>IF($A48&lt;=CADASTRO!$C$13,$A48,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>IF($A49&lt;=CADASTRO!$C$13,$A49,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f>IF($A50&lt;=CADASTRO!$C$13,$A50,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>IF($A51&lt;=CADASTRO!$C$13,$A51,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>IF($A52&lt;=CADASTRO!$C$13,$A52,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>IF($A53&lt;=CADASTRO!$C$13,$A53,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>IF($A54&lt;=CADASTRO!$C$13,$A54,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>IF($A55&lt;=CADASTRO!$C$13,$A55,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>IF($A56&lt;=CADASTRO!$C$13,$A56,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>IF($A57&lt;=CADASTRO!$C$13,$A57,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>IF($A58&lt;=CADASTRO!$C$13,$A58,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>IF($A59&lt;=CADASTRO!$C$13,$A59,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>IF($A60&lt;=CADASTRO!$C$13,$A60,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>IF($A61&lt;=CADASTRO!$C$13,$A61,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>IF($A62&lt;=CADASTRO!$C$13,$A62,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>IF($A63&lt;=CADASTRO!$C$13,$A63,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>IF($A64&lt;=CADASTRO!$C$13,$A64,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>IF($A65&lt;=CADASTRO!$C$13,$A65,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>IF($A66&lt;=CADASTRO!$C$13,$A66,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>IF($A67&lt;=CADASTRO!$C$13,$A67,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>IF($A68&lt;=CADASTRO!$C$13,$A68,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>IF($A69&lt;=CADASTRO!$C$13,$A69,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>IF($A70&lt;=CADASTRO!$C$13,$A70,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>IF($A71&lt;=CADASTRO!$C$13,$A71,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>IF($A72&lt;=CADASTRO!$C$13,$A72,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>IF($A73&lt;=CADASTRO!$C$13,$A73,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>IF($A74&lt;=CADASTRO!$C$13,$A74,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>IF($A75&lt;=CADASTRO!$C$13,$A75,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f>IF($A76&lt;=CADASTRO!$C$13,$A76,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>IF($A77&lt;=CADASTRO!$C$13,$A77,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>IF($A78&lt;=CADASTRO!$C$13,$A78,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f>IF($A79&lt;=CADASTRO!$C$13,$A79,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f>IF($A80&lt;=CADASTRO!$C$13,$A80,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f>IF($A81&lt;=CADASTRO!$C$13,$A81,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f>IF($A82&lt;=CADASTRO!$C$13,$A82,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f>IF($A83&lt;=CADASTRO!$C$13,$A83,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f>IF($A84&lt;=CADASTRO!$C$13,$A84,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f>IF($A85&lt;=CADASTRO!$C$13,$A85,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f>IF($A86&lt;=CADASTRO!$C$13,$A86,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f>IF($A87&lt;=CADASTRO!$C$13,$A87,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f>IF($A88&lt;=CADASTRO!$C$13,$A88,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f>IF($A89&lt;=CADASTRO!$C$13,$A89,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f>IF($A90&lt;=CADASTRO!$C$13,$A90,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f>IF($A91&lt;=CADASTRO!$C$13,$A91,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f>IF($A92&lt;=CADASTRO!$C$13,$A92,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f>IF($A93&lt;=CADASTRO!$C$13,$A93,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f>IF($A94&lt;=CADASTRO!$C$13,$A94,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f>IF($A95&lt;=CADASTRO!$C$13,$A95,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f>IF($A96&lt;=CADASTRO!$C$13,$A96,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f>IF($A97&lt;=CADASTRO!$C$13,$A97,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f>IF($A98&lt;=CADASTRO!$C$13,$A98,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f>IF($A99&lt;=CADASTRO!$C$13,$A99,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f>IF($A100&lt;=CADASTRO!$C$13,$A100,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f>IF($A101&lt;=CADASTRO!$C$13,$A101,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f>IF($A102&lt;=CADASTRO!$C$13,$A102,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f>IF($A103&lt;=CADASTRO!$C$13,$A103,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f>IF($A104&lt;=CADASTRO!$C$13,$A104,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f>IF($A105&lt;=CADASTRO!$C$13,$A105,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f>IF($A106&lt;=CADASTRO!$C$13,$A106,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f>IF($A107&lt;=CADASTRO!$C$13,$A107,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f>IF($A108&lt;=CADASTRO!$C$13,$A108,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f>IF($A109&lt;=CADASTRO!$C$13,$A109,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f>IF($A110&lt;=CADASTRO!$C$13,$A110,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f>IF($A111&lt;=CADASTRO!$C$13,$A111,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f>IF($A112&lt;=CADASTRO!$C$13,$A112,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f>IF($A113&lt;=CADASTRO!$C$13,$A113,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f>IF($A114&lt;=CADASTRO!$C$13,$A114,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f>IF($A115&lt;=CADASTRO!$C$13,$A115,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f>IF($A116&lt;=CADASTRO!$C$13,$A116,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f>IF($A117&lt;=CADASTRO!$C$13,$A117,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f>IF($A118&lt;=CADASTRO!$C$13,$A118,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSO">
+      <formula>NOT(ISERROR(SEARCH("FALSO",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCFE4DD-5A78-4E5A-9649-9EDFEB9AB891}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19246,27 +20502,27 @@
   <autoFilter ref="B4:I4" xr:uid="{9F39D547-A19F-45A5-A567-DF4CA4653383}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C5:C1048576">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="MÉDIA">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="MÉDIA">
       <formula>NOT(ISERROR(SEARCH("MÉDIA",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="BAIXA">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="BAIXA">
       <formula>NOT(ISERROR(SEARCH("BAIXA",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsErrors" dxfId="43" priority="1">
+    <cfRule type="containsErrors" dxfId="40" priority="1">
       <formula>ISERROR(G1)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="CANCELADO">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="CANCELADO">
       <formula>NOT(ISERROR(SEARCH("CANCELADO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="CONCLUIDO">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="CONCLUIDO">
       <formula>NOT(ISERROR(SEARCH("CONCLUIDO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="EM ANDAMENTO">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="EM ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("EM ANDAMENTO",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34942,9 +36198,9 @@
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H1000">
     <sortCondition ref="D5:D1000"/>
-    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="39"/>
-    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="38"/>
-    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="37"/>
+    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="46"/>
+    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="45"/>
+    <sortCondition sortBy="cellColor" ref="C5:C1000" dxfId="44"/>
   </sortState>
   <conditionalFormatting sqref="C2:D4 D443:D1048576">
     <cfRule type="containsErrors" dxfId="36" priority="20">
@@ -35044,6 +36300,80 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05131C98-5485-4F4B-93D5-88A1E492ABF4}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D336C97-532C-4A11-85FE-1253277DDC82}">
   <dimension ref="B1:H22"/>
   <sheetViews>
@@ -35593,13 +36923,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E445E58-335A-49F4-A8AF-477DC33FD806}">
   <dimension ref="C1:AO37"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36075,7 +37403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0486CD31-571F-4961-851A-C561E4697CEA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -36106,928 +37434,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB646DE6-61D8-4310-B19E-3CBC0FC4ABCF}">
-  <dimension ref="A1:J118"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>IF($A3&lt;=CADASTRO!$C$13,$A3,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <f>EQUIPE!B5</f>
-        <v>DANIELLE</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <f>IF($A4&lt;=CADASTRO!$C$13,$A4,"")</f>
-        <v>2</v>
-      </c>
-      <c r="D4" t="str">
-        <f>EQUIPE!B6</f>
-        <v>MATEUS</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>IF($A5&lt;=CADASTRO!$C$13,$A5,"")</f>
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <f>EQUIPE!B7</f>
-        <v>FRANCIELE</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>IF($A6&lt;=CADASTRO!$C$13,$A6,"")</f>
-        <v>4</v>
-      </c>
-      <c r="D6" t="str">
-        <f>EQUIPE!B8</f>
-        <v>NATHAN</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>IF($A7&lt;=CADASTRO!$C$13,$A7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" t="str">
-        <f>EQUIPE!B9</f>
-        <v>JESSICA</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>IF($A8&lt;=CADASTRO!$C$13,$A8,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" t="str">
-        <f>EQUIPE!B10</f>
-        <v>FERNANDO</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>IF($A9&lt;=CADASTRO!$C$13,$A9,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" t="str">
-        <f>EQUIPE!B11</f>
-        <v>LARISSA</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>IF($A10&lt;=CADASTRO!$C$13,$A10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" t="str">
-        <f>EQUIPE!B12</f>
-        <v>CLAUDIA</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>IF($A11&lt;=CADASTRO!$C$13,$A11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <f>EQUIPE!B13</f>
-        <v>NICOLAS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>IF($A12&lt;=CADASTRO!$C$13,$A12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>EQUIPE!B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>IF($A13&lt;=CADASTRO!$C$13,$A13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>EQUIPE!B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>IF($A14&lt;=CADASTRO!$C$13,$A14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>EQUIPE!B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>IF($A15&lt;=CADASTRO!$C$13,$A15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>EQUIPE!B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>IF($A16&lt;=CADASTRO!$C$13,$A16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>EQUIPE!B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>IF($A17&lt;=CADASTRO!$C$13,$A17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>EQUIPE!B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>IF($A18&lt;=CADASTRO!$C$13,$A18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>EQUIPE!B20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>IF($A19&lt;=CADASTRO!$C$13,$A19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>EQUIPE!B21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>IF($A20&lt;=CADASTRO!$C$13,$A20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f>EQUIPE!B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>IF($A21&lt;=CADASTRO!$C$13,$A21,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>EQUIPE!B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>IF($A22&lt;=CADASTRO!$C$13,$A22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f>EQUIPE!B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>IF($A23&lt;=CADASTRO!$C$13,$A23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f>EQUIPE!B25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>IF($A24&lt;=CADASTRO!$C$13,$A24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f>EQUIPE!B26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>IF($A25&lt;=CADASTRO!$C$13,$A25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f>EQUIPE!B27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>IF($A26&lt;=CADASTRO!$C$13,$A26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f>EQUIPE!B28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>IF($A27&lt;=CADASTRO!$C$13,$A27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f>EQUIPE!B29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>IF($A28&lt;=CADASTRO!$C$13,$A28,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f>EQUIPE!B30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>IF($A29&lt;=CADASTRO!$C$13,$A29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f>EQUIPE!B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f>IF($A30&lt;=CADASTRO!$C$13,$A30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f>EQUIPE!B32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>IF($A31&lt;=CADASTRO!$C$13,$A31,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f>IF($A32&lt;=CADASTRO!$C$13,$A32,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>IF($A33&lt;=CADASTRO!$C$13,$A33,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f>IF($A34&lt;=CADASTRO!$C$13,$A34,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f>IF($A35&lt;=CADASTRO!$C$13,$A35,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f>IF($A36&lt;=CADASTRO!$C$13,$A36,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f>IF($A37&lt;=CADASTRO!$C$13,$A37,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>IF($A38&lt;=CADASTRO!$C$13,$A38,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f>IF($A39&lt;=CADASTRO!$C$13,$A39,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f>IF($A40&lt;=CADASTRO!$C$13,$A40,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f>IF($A41&lt;=CADASTRO!$C$13,$A41,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f>IF($A42&lt;=CADASTRO!$C$13,$A42,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f>IF($A43&lt;=CADASTRO!$C$13,$A43,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f>IF($A44&lt;=CADASTRO!$C$13,$A44,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f>IF($A45&lt;=CADASTRO!$C$13,$A45,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f>IF($A46&lt;=CADASTRO!$C$13,$A46,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f>IF($A47&lt;=CADASTRO!$C$13,$A47,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f>IF($A48&lt;=CADASTRO!$C$13,$A48,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <f>IF($A49&lt;=CADASTRO!$C$13,$A49,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <f>IF($A50&lt;=CADASTRO!$C$13,$A50,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f>IF($A51&lt;=CADASTRO!$C$13,$A51,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f>IF($A52&lt;=CADASTRO!$C$13,$A52,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <f>IF($A53&lt;=CADASTRO!$C$13,$A53,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <f>IF($A54&lt;=CADASTRO!$C$13,$A54,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>IF($A55&lt;=CADASTRO!$C$13,$A55,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f>IF($A56&lt;=CADASTRO!$C$13,$A56,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f>IF($A57&lt;=CADASTRO!$C$13,$A57,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f>IF($A58&lt;=CADASTRO!$C$13,$A58,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f>IF($A59&lt;=CADASTRO!$C$13,$A59,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f>IF($A60&lt;=CADASTRO!$C$13,$A60,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f>IF($A61&lt;=CADASTRO!$C$13,$A61,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f>IF($A62&lt;=CADASTRO!$C$13,$A62,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f>IF($A63&lt;=CADASTRO!$C$13,$A63,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <f>IF($A64&lt;=CADASTRO!$C$13,$A64,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <f>IF($A65&lt;=CADASTRO!$C$13,$A65,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <f>IF($A66&lt;=CADASTRO!$C$13,$A66,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <f>IF($A67&lt;=CADASTRO!$C$13,$A67,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <f>IF($A68&lt;=CADASTRO!$C$13,$A68,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <f>IF($A69&lt;=CADASTRO!$C$13,$A69,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <f>IF($A70&lt;=CADASTRO!$C$13,$A70,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <f>IF($A71&lt;=CADASTRO!$C$13,$A71,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <f>IF($A72&lt;=CADASTRO!$C$13,$A72,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <f>IF($A73&lt;=CADASTRO!$C$13,$A73,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f>IF($A74&lt;=CADASTRO!$C$13,$A74,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f>IF($A75&lt;=CADASTRO!$C$13,$A75,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f>IF($A76&lt;=CADASTRO!$C$13,$A76,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <f>IF($A77&lt;=CADASTRO!$C$13,$A77,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <f>IF($A78&lt;=CADASTRO!$C$13,$A78,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <f>IF($A79&lt;=CADASTRO!$C$13,$A79,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <f>IF($A80&lt;=CADASTRO!$C$13,$A80,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <f>IF($A81&lt;=CADASTRO!$C$13,$A81,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <f>IF($A82&lt;=CADASTRO!$C$13,$A82,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <f>IF($A83&lt;=CADASTRO!$C$13,$A83,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <f>IF($A84&lt;=CADASTRO!$C$13,$A84,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <f>IF($A85&lt;=CADASTRO!$C$13,$A85,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <f>IF($A86&lt;=CADASTRO!$C$13,$A86,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <f>IF($A87&lt;=CADASTRO!$C$13,$A87,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <f>IF($A88&lt;=CADASTRO!$C$13,$A88,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <f>IF($A89&lt;=CADASTRO!$C$13,$A89,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <f>IF($A90&lt;=CADASTRO!$C$13,$A90,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <f>IF($A91&lt;=CADASTRO!$C$13,$A91,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <f>IF($A92&lt;=CADASTRO!$C$13,$A92,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <f>IF($A93&lt;=CADASTRO!$C$13,$A93,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <f>IF($A94&lt;=CADASTRO!$C$13,$A94,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <f>IF($A95&lt;=CADASTRO!$C$13,$A95,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <f>IF($A96&lt;=CADASTRO!$C$13,$A96,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <f>IF($A97&lt;=CADASTRO!$C$13,$A97,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <f>IF($A98&lt;=CADASTRO!$C$13,$A98,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <f>IF($A99&lt;=CADASTRO!$C$13,$A99,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <f>IF($A100&lt;=CADASTRO!$C$13,$A100,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <f>IF($A101&lt;=CADASTRO!$C$13,$A101,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <f>IF($A102&lt;=CADASTRO!$C$13,$A102,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <f>IF($A103&lt;=CADASTRO!$C$13,$A103,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <f>IF($A104&lt;=CADASTRO!$C$13,$A104,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <f>IF($A105&lt;=CADASTRO!$C$13,$A105,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <f>IF($A106&lt;=CADASTRO!$C$13,$A106,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <f>IF($A107&lt;=CADASTRO!$C$13,$A107,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <f>IF($A108&lt;=CADASTRO!$C$13,$A108,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <f>IF($A109&lt;=CADASTRO!$C$13,$A109,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <f>IF($A110&lt;=CADASTRO!$C$13,$A110,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <f>IF($A111&lt;=CADASTRO!$C$13,$A111,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <f>IF($A112&lt;=CADASTRO!$C$13,$A112,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <f>IF($A113&lt;=CADASTRO!$C$13,$A113,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <f>IF($A114&lt;=CADASTRO!$C$13,$A114,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <f>IF($A115&lt;=CADASTRO!$C$13,$A115,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <f>IF($A116&lt;=CADASTRO!$C$13,$A116,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <f>IF($A117&lt;=CADASTRO!$C$13,$A117,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <f>IF($A118&lt;=CADASTRO!$C$13,$A118,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSO">
-      <formula>NOT(ISERROR(SEARCH("FALSO",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>